--- a/Moves.xlsx
+++ b/Moves.xlsx
@@ -904,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>74</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>76</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>78</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>80</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>83</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>85</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>87</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>89</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>91</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>92</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>94</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>95</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>96</v>
@@ -2397,27 +2397,105 @@
         <v>11</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61">
-        <v>15</v>
-      </c>
-      <c r="F61">
-        <v>80</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -2425,25 +2503,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>25</v>
+      </c>
+      <c r="F62">
+        <v>55</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
@@ -2451,10 +2529,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
@@ -2462,40 +2540,66 @@
       <c r="D63" t="s">
         <v>28</v>
       </c>
-      <c r="E63" t="s">
-        <v>50</v>
+      <c r="E63">
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>0.75</v>
+      </c>
+      <c r="H64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
         <v>31</v>
       </c>
-      <c r="E65" t="s">
-        <v>32</v>
+      <c r="E65">
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>26</v>
       </c>
-      <c r="G65" t="s">
-        <v>26</v>
+      <c r="G65">
+        <v>0.75</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2503,25 +2607,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
         <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E66">
-        <v>25</v>
-      </c>
-      <c r="F66">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
       </c>
       <c r="G66">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2529,25 +2633,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2555,25 +2659,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>35</v>
-      </c>
-      <c r="F68" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2581,25 +2685,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2607,77 +2711,155 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F70" t="s">
         <v>26</v>
       </c>
-      <c r="G70">
-        <v>0.75</v>
+      <c r="G70" t="s">
+        <v>61</v>
       </c>
       <c r="H70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71">
+        <v>0.7</v>
+      </c>
+      <c r="H71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72">
-        <v>0.95</v>
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s">
+        <v>61</v>
       </c>
       <c r="H72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E75">
-        <v>30</v>
-      </c>
-      <c r="F75">
-        <v>40</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>61</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2685,22 +2867,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
       </c>
       <c r="E76">
-        <v>15</v>
-      </c>
-      <c r="F76" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2711,25 +2893,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>20</v>
-      </c>
-      <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>90</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2737,25 +2919,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78">
-        <v>0.7</v>
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>122</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -2763,25 +2945,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E79">
-        <v>15</v>
-      </c>
-      <c r="F79">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
       </c>
       <c r="G79" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
@@ -2789,48 +2971,74 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E80">
-        <v>10</v>
-      </c>
-      <c r="F80">
-        <v>100</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
       </c>
       <c r="H80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>30</v>
+      </c>
+      <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
       </c>
       <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>118</v>
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2841,25 +3049,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>31</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
         <v>26</v>
       </c>
-      <c r="G83" t="s">
-        <v>61</v>
+      <c r="G83">
+        <v>0.85</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -2867,25 +3075,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E84">
-        <v>25</v>
-      </c>
-      <c r="F84">
-        <v>50</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2893,25 +3101,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85">
-        <v>10</v>
-      </c>
-      <c r="F85">
-        <v>90</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -2919,25 +3127,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
         <v>26</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2945,19 +3153,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
       </c>
-      <c r="E87">
-        <v>40</v>
+      <c r="E87" t="s">
+        <v>50</v>
       </c>
       <c r="F87" t="s">
         <v>26</v>
@@ -2971,25 +3179,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
         <v>26</v>
       </c>
-      <c r="G88" t="s">
-        <v>26</v>
+      <c r="G88">
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2997,25 +3205,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E89">
-        <v>30</v>
-      </c>
-      <c r="F89">
         <v>40</v>
       </c>
-      <c r="G89">
-        <v>1</v>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
       </c>
       <c r="H89" t="s">
         <v>11</v>
@@ -3023,51 +3231,129 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E90">
-        <v>20</v>
-      </c>
-      <c r="F90">
-        <v>20</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
       </c>
       <c r="H90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G94">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -3075,25 +3361,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>15</v>
-      </c>
-      <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="G95">
+        <v>0.75</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3101,25 +3387,25 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
-      </c>
-      <c r="E96" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
+        <v>142</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
@@ -3127,25 +3413,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
+        <v>142</v>
+      </c>
+      <c r="G97">
+        <v>0.7</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
@@ -3153,25 +3439,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+      <c r="F98">
+        <v>65</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
@@ -3179,51 +3465,77 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>20</v>
       </c>
-      <c r="F99" t="s">
-        <v>26</v>
+      <c r="F99">
+        <v>65</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>84</v>
+      </c>
+      <c r="G100">
+        <v>0.85</v>
+      </c>
+      <c r="H100" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C101" t="s">
         <v>82</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>40</v>
-      </c>
-      <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <v>80</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3231,22 +3543,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E102">
-        <v>40</v>
-      </c>
-      <c r="F102" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>60</v>
       </c>
       <c r="G102" t="s">
         <v>26</v>
@@ -3257,103 +3569,233 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
       </c>
       <c r="H103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>15</v>
+      </c>
+      <c r="F104">
+        <v>20</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>35</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" t="s">
         <v>31</v>
       </c>
-      <c r="E105">
-        <v>30</v>
-      </c>
-      <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D107" t="s">
         <v>31</v>
       </c>
       <c r="E107">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107">
+        <v>0.8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109">
+        <v>0.9</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110">
         <v>30</v>
       </c>
-      <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="F110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>61</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -3361,10 +3803,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
@@ -3373,13 +3815,13 @@
         <v>10</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F112">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G112">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3387,22 +3829,22 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
       </c>
-      <c r="E113">
-        <v>30</v>
+      <c r="E113" t="s">
+        <v>50</v>
       </c>
       <c r="F113" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3413,25 +3855,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E114">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="G114">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
@@ -3439,25 +3881,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>20</v>
-      </c>
-      <c r="F115">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>105</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="s">
         <v>11</v>
@@ -3465,25 +3907,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>20</v>
-      </c>
-      <c r="F116">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>59</v>
       </c>
       <c r="G116">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>11</v>
@@ -3491,25 +3933,25 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>70</v>
       </c>
       <c r="G117">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>11</v>
@@ -3517,51 +3959,77 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E118">
         <v>15</v>
       </c>
-      <c r="F118">
-        <v>80</v>
+      <c r="F118" t="s">
+        <v>26</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
       </c>
       <c r="E120">
-        <v>20</v>
-      </c>
-      <c r="F120">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
       </c>
       <c r="G120" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H120" t="s">
         <v>11</v>
@@ -3569,25 +4037,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>26</v>
       </c>
       <c r="H121" t="s">
         <v>11</v>
@@ -3595,25 +4063,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122">
-        <v>15</v>
-      </c>
-      <c r="F122">
-        <v>20</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
       </c>
       <c r="H122" t="s">
         <v>11</v>
@@ -3621,25 +4089,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
       <c r="E123">
-        <v>35</v>
-      </c>
-      <c r="F123">
-        <v>10</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s">
+        <v>61</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -3647,25 +4115,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C124" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s">
-        <v>26</v>
+        <v>172</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -3673,22 +4141,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E125">
         <v>15</v>
       </c>
-      <c r="F125" t="s">
-        <v>26</v>
+      <c r="F125">
+        <v>18</v>
       </c>
       <c r="G125">
         <v>0.8</v>
@@ -3699,25 +4167,25 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>10</v>
       </c>
-      <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s">
-        <v>26</v>
+      <c r="F126">
+        <v>50</v>
+      </c>
+      <c r="G126">
+        <v>0.9</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -3725,25 +4193,25 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>150</v>
-      </c>
-      <c r="G127">
-        <v>0.9</v>
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>26</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -3751,51 +4219,77 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>30</v>
-      </c>
-      <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>75</v>
+      </c>
+      <c r="G128">
+        <v>0.9</v>
       </c>
       <c r="H128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+      <c r="F129">
+        <v>80</v>
+      </c>
+      <c r="G129">
+        <v>0.9</v>
+      </c>
+      <c r="H129" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
       </c>
       <c r="E130">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
         <v>26</v>
       </c>
       <c r="G130" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -3803,25 +4297,25 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F131">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G131">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -3829,22 +4323,22 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>20</v>
+      </c>
+      <c r="F132">
         <v>70</v>
-      </c>
-      <c r="D132" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" t="s">
-        <v>50</v>
-      </c>
-      <c r="F132" t="s">
-        <v>118</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3855,521 +4349,27 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
-      </c>
-      <c r="E133">
-        <v>10</v>
-      </c>
-      <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133">
-        <v>0.75</v>
+        <v>10</v>
+      </c>
+      <c r="E133" t="s">
+        <v>182</v>
+      </c>
+      <c r="F133">
+        <v>50</v>
+      </c>
+      <c r="G133" t="s">
+        <v>38</v>
       </c>
       <c r="H133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>143</v>
-      </c>
-      <c r="B134" t="s">
-        <v>162</v>
-      </c>
-      <c r="C134" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>105</v>
-      </c>
-      <c r="G134">
-        <v>0.9</v>
-      </c>
-      <c r="H134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>145</v>
-      </c>
-      <c r="B136" t="s">
-        <v>163</v>
-      </c>
-      <c r="C136" t="s">
-        <v>82</v>
-      </c>
-      <c r="D136" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136">
-        <v>30</v>
-      </c>
-      <c r="F136" t="s">
-        <v>59</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>146</v>
-      </c>
-      <c r="B137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137">
-        <v>10</v>
-      </c>
-      <c r="F137">
-        <v>70</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>147</v>
-      </c>
-      <c r="B138" t="s">
-        <v>165</v>
-      </c>
-      <c r="C138" t="s">
-        <v>43</v>
-      </c>
-      <c r="D138" t="s">
-        <v>31</v>
-      </c>
-      <c r="E138">
-        <v>15</v>
-      </c>
-      <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>148</v>
-      </c>
-      <c r="B139" t="s">
-        <v>166</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" t="s">
-        <v>31</v>
-      </c>
-      <c r="E139">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
-      <c r="H139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>149</v>
-      </c>
-      <c r="B140" t="s">
-        <v>167</v>
-      </c>
-      <c r="C140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D140" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140">
-        <v>15</v>
-      </c>
-      <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>150</v>
-      </c>
-      <c r="B141" t="s">
-        <v>168</v>
-      </c>
-      <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" t="s">
-        <v>31</v>
-      </c>
-      <c r="E141">
-        <v>40</v>
-      </c>
-      <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
-      <c r="H141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>151</v>
-      </c>
-      <c r="B142" t="s">
-        <v>169</v>
-      </c>
-      <c r="C142" t="s">
-        <v>68</v>
-      </c>
-      <c r="D142" t="s">
-        <v>31</v>
-      </c>
-      <c r="E142" t="s">
-        <v>32</v>
-      </c>
-      <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>152</v>
-      </c>
-      <c r="B143" t="s">
-        <v>170</v>
-      </c>
-      <c r="C143" t="s">
-        <v>82</v>
-      </c>
-      <c r="D143" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143">
-        <v>10</v>
-      </c>
-      <c r="F143" t="s">
-        <v>51</v>
-      </c>
-      <c r="G143" t="s">
-        <v>61</v>
-      </c>
-      <c r="H143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>153</v>
-      </c>
-      <c r="B144" t="s">
-        <v>171</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144">
-        <v>5</v>
-      </c>
-      <c r="F144" t="s">
-        <v>172</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>154</v>
-      </c>
-      <c r="B145" t="s">
-        <v>173</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145">
-        <v>15</v>
-      </c>
-      <c r="F145">
-        <v>18</v>
-      </c>
-      <c r="G145">
-        <v>0.8</v>
-      </c>
-      <c r="H145" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>155</v>
-      </c>
-      <c r="B146" t="s">
-        <v>174</v>
-      </c>
-      <c r="C146" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146">
-        <v>10</v>
-      </c>
-      <c r="F146">
-        <v>50</v>
-      </c>
-      <c r="G146">
-        <v>0.9</v>
-      </c>
-      <c r="H146" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>156</v>
-      </c>
-      <c r="B147" t="s">
-        <v>175</v>
-      </c>
-      <c r="C147" t="s">
-        <v>90</v>
-      </c>
-      <c r="D147" t="s">
-        <v>31</v>
-      </c>
-      <c r="E147">
-        <v>10</v>
-      </c>
-      <c r="F147" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" t="s">
-        <v>26</v>
-      </c>
-      <c r="H147" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>157</v>
-      </c>
-      <c r="B148" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" t="s">
-        <v>115</v>
-      </c>
-      <c r="D148" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148">
-        <v>10</v>
-      </c>
-      <c r="F148">
-        <v>75</v>
-      </c>
-      <c r="G148">
-        <v>0.9</v>
-      </c>
-      <c r="H148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>158</v>
-      </c>
-      <c r="B149" t="s">
-        <v>177</v>
-      </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149">
-        <v>15</v>
-      </c>
-      <c r="F149">
-        <v>80</v>
-      </c>
-      <c r="G149">
-        <v>0.9</v>
-      </c>
-      <c r="H149" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>159</v>
-      </c>
-      <c r="B150" t="s">
-        <v>178</v>
-      </c>
-      <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
-        <v>31</v>
-      </c>
-      <c r="E150">
-        <v>30</v>
-      </c>
-      <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s">
-        <v>26</v>
-      </c>
-      <c r="H150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>161</v>
-      </c>
-      <c r="B152" t="s">
-        <v>179</v>
-      </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152">
-        <v>10</v>
-      </c>
-      <c r="F152">
-        <v>80</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>163</v>
-      </c>
-      <c r="B154" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154">
-        <v>20</v>
-      </c>
-      <c r="F154">
-        <v>70</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>165</v>
-      </c>
-      <c r="B156" t="s">
-        <v>181</v>
-      </c>
-      <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" t="s">
-        <v>182</v>
-      </c>
-      <c r="F156">
-        <v>50</v>
-      </c>
-      <c r="G156" t="s">
-        <v>38</v>
-      </c>
-      <c r="H156" t="s">
         <v>11</v>
       </c>
     </row>
